--- a/biology/Zoologie/Ermite_bronzé/Ermite_bronzé.xlsx
+++ b/biology/Zoologie/Ermite_bronzé/Ermite_bronzé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ermite_bronz%C3%A9</t>
+          <t>Ermite_bronzé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucis aeneus
 L'Ermite bronzé (Glaucis aeneus) est une espèce de colibris (famille des Trochilidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ermite_bronz%C3%A9</t>
+          <t>Ermite_bronzé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce présente principalement au Costa Rica, mais aussi au Nicaragua et dans l'ouest du Panama. Elle peut parfois aussi se trouver dans les basses terres de la Colombie et de l'Équateur, et a quelquefois été observée au Honduras.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ermite_bronz%C3%A9</t>
+          <t>Ermite_bronzé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats naturels sont les forêts tropicales et subtropicales humides de basses altitudes mais aussi les anciennes forêts fortement dégradées.
 </t>
